--- a/biology/Botanique/Triphyophyllum_peltatum/Triphyophyllum_peltatum.xlsx
+++ b/biology/Botanique/Triphyophyllum_peltatum/Triphyophyllum_peltatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triphyophyllum peltatum (du grec tria « trois », phyo « croître » et phyllon « feuille », l'épithète peltatum, du grec pelte « bouclier » faisant référence à la forme de ses graines) est une espèce de plantes carnivores tropicale que l'on rencontre en Afrique de l'ouest et du centre. Cette liane est la seule espèce du genre Triphyophyllum.
 </t>
@@ -511,21 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante de 60 centimètres, elle possède une tige vrillée sur le sommet, qui lui permet de s'accrocher à d'autres végétaux. Cette plante, mise de côté tant par les collectionneurs que les cultivateurs, a récemment été classée parmi les plantes carnivores (Bringmann 1998). En effet, les feuilles carnivores sont capables d'absorber certains acides aminés, dont la L-alanine. De plus, l'analyse de l'ADN du Triphyophyllum peltatum montre que celui-ci est très proche de ceux des droseracées (Mark Chase et al. de Kew)
 Il est à noter que le caractère carnivore de cette plante n'apparait que lorsque la plante est assez grande (40 cm environ) et que la saison des pluies commence (forte humidité).
-Les feuilles
-On distingue trois types de feuilles chez cette espèce (trimorphisme foliaire, comme le rappelle son nom Triphyophyllum)[1] :
-Les feuilles des rameaux longs peuvent atteindre 20 cm de long, et 3 cm de large. Elles sont oblongues. Fines vers la tige, elles s'élargissent lorsqu'on va vers le bout de la feuille. On les reconnait par la présence de deux crochets, servant probablement à s'accrocher aux arbres voisins.
-Les feuilles des rameaux courts, oblongues arrondies, sont beaucoup plus longues que les précédentes. Elles peuvent atteindre 30 cm de long, et 6 cm de large.
-Les feuilles des ramilles stériles, sont des feuilles atrophiées et modifiées. En effet, le limbe de la feuille a disparu, ne laissant que la nervure centrale. C'est sur cette « feuille » que l'on trouve les glandes digestives, donnant le caractère carnivore de la plante.
-Le piège
-Le piège fonctionne comme celui du byblis, ou de la droséra. De fines tiges sortent de la plante, recouverts de cils glanduleux. Ceux-ci, contrairement à la droséra, ne sont dotés d'aucun mouvement. Les insectes, attirés par le liquide qui ressemble à du nectar, viennent s'y coller. Ils sont ensuite digérés.
-Fleurs et graines
-Les fleurs bisexuées sont blanches-orange et sont composées de 5 sépales, 5 pétales, 10 étamines et 1 ovaire.
-Elle donne naissance à des fruits. Contrairement aux autres angiospermes, les graines sont éjectées du fruit avant que celui-ci ne soit mature
-Les graines sont plates, en forme de disque, et peuvent atteindre 6 à 12 cm de diamètre. L'embryon est très petit, et le reste de la graine se compose d'une aile fine servant à planer lors de l'expulsion. C'est le même principe utilisé par les gymnospermes.
 </t>
         </is>
       </c>
@@ -551,10 +554,127 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On distingue trois types de feuilles chez cette espèce (trimorphisme foliaire, comme le rappelle son nom Triphyophyllum) :
+Les feuilles des rameaux longs peuvent atteindre 20 cm de long, et 3 cm de large. Elles sont oblongues. Fines vers la tige, elles s'élargissent lorsqu'on va vers le bout de la feuille. On les reconnait par la présence de deux crochets, servant probablement à s'accrocher aux arbres voisins.
+Les feuilles des rameaux courts, oblongues arrondies, sont beaucoup plus longues que les précédentes. Elles peuvent atteindre 30 cm de long, et 6 cm de large.
+Les feuilles des ramilles stériles, sont des feuilles atrophiées et modifiées. En effet, le limbe de la feuille a disparu, ne laissant que la nervure centrale. C'est sur cette « feuille » que l'on trouve les glandes digestives, donnant le caractère carnivore de la plante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Triphyophyllum_peltatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triphyophyllum_peltatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le piège</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le piège fonctionne comme celui du byblis, ou de la droséra. De fines tiges sortent de la plante, recouverts de cils glanduleux. Ceux-ci, contrairement à la droséra, ne sont dotés d'aucun mouvement. Les insectes, attirés par le liquide qui ressemble à du nectar, viennent s'y coller. Ils sont ensuite digérés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Triphyophyllum_peltatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triphyophyllum_peltatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs bisexuées sont blanches-orange et sont composées de 5 sépales, 5 pétales, 10 étamines et 1 ovaire.
+Elle donne naissance à des fruits. Contrairement aux autres angiospermes, les graines sont éjectées du fruit avant que celui-ci ne soit mature
+Les graines sont plates, en forme de disque, et peuvent atteindre 6 à 12 cm de diamètre. L'embryon est très petit, et le reste de la graine se compose d'une aile fine servant à planer lors de l'expulsion. C'est le même principe utilisé par les gymnospermes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Triphyophyllum_peltatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triphyophyllum_peltatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de Triphyophyllum peltatum est délicate, et encore peu répandue. Cependant, elle reste facile pour les collectionneurs de plantes tropicales.
 Pour croitre, Triphyophyllum peltatum a besoin de :
